--- a/테이블명세-info-list.xlsx
+++ b/테이블명세-info-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,23 +158,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR(3000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(3000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(3000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서은경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -766,6 +786,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -784,9 +816,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,17 +825,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1173,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1808,19 +1828,23 @@
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="43">
+        <v>44705</v>
+      </c>
+      <c r="K2" s="40"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1830,32 +1854,34 @@
         <v>10</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="42"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1896,17 +1922,17 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="32" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1919,23 +1945,21 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -1946,20 +1970,20 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1971,17 +1995,17 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="33" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1994,21 +2018,19 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -2019,17 +2041,17 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="33" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2042,9 +2064,9 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="43"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="12"/>
@@ -2057,9 +2079,9 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="12"/>
@@ -2072,9 +2094,9 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="3"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -2087,9 +2109,9 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="43"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="12"/>
@@ -2102,9 +2124,9 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="3"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -2117,9 +2139,9 @@
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="3"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
